--- a/Overall plan.xlsx
+++ b/Overall plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan\Desktop\Programming\Cross-platform Development\Cross-Platform-Development-Assessment-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming files\AIE\Diploma\Cross platform development\CPD-Prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA8C36D-CA60-4503-885A-B23A020A06FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054BE0DC-623B-4754-B506-E8AE468B7E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{4C8BB62C-4618-4BF7-9882-E08B8E8EA599}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4C8BB62C-4618-4BF7-9882-E08B8E8EA599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="189">
   <si>
     <t>Assessment 3: Write a Technical Design Document</t>
   </si>
@@ -526,33 +526,12 @@
     </r>
   </si>
   <si>
-    <t>4.1.9: Refer:</t>
-  </si>
-  <si>
     <t>4.1.11: The GUI will include:</t>
   </si>
   <si>
-    <t>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Translate the ingredient's transform to the player in an arc, then add it to the inventory and make it disappear.</t>
-  </si>
-  <si>
-    <t>4.1.11.5: (ON DRAG &amp; DROP - INGREDIENT [GARDEN TO INVENTORY]): Create the ingredient in the inventory, remove it from the garden.</t>
-  </si>
-  <si>
     <t>4.1.11.6: (ON DRAG &amp; DROP - INGREDIENT [INVENTORY TO LABORATORY]): Create the ingredient in the laboratory, remove it from the inventory.</t>
   </si>
   <si>
-    <t>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO BUYER]): Create the potion in the buyer, remove it from the inventory.</t>
-  </si>
-  <si>
-    <t>4.1.11.2: (ON DOUBLE CLICK - PLAYER): Show the player's 6-slot inventory / close it.</t>
-  </si>
-  <si>
-    <t>4.1.11.1: (ON DOUBLE CLICK - BUYER): Show the buyer's 1-slot inventory that will accept a potion / close it.</t>
-  </si>
-  <si>
-    <t>4.1.11.4: (ON DOUBLE CLICK - LABORATORY): Show the laboratory's 3-slot inventory / close it.</t>
-  </si>
-  <si>
     <t>4.1.11.8: (ON SINGLE CLICK - MENU): Open the main menu / close it.</t>
   </si>
   <si>
@@ -563,9 +542,6 @@
   </si>
   <si>
     <t>4.1.11.8(a): Resume.</t>
-  </si>
-  <si>
-    <t>4.1.11.8(b): Exit.</t>
   </si>
   <si>
     <t>4.1.10.1: All GUI interactivities need exception handling.</t>
@@ -718,16 +694,10 @@
     <t>3.1.5.1(c): Assessment 3 (continuous update between 13 September and 6 October)</t>
   </si>
   <si>
-    <t>3.1.5.2(c)(iv): Ingredient pickup object</t>
-  </si>
-  <si>
     <t>3.1.5.2(a)(iv): Main menu with resume/ exit buttons</t>
   </si>
   <si>
     <t>Completion tracking checklist</t>
-  </si>
-  <si>
-    <t>4.1.11.10: (ON CHARACTER JUMP): Set player animation to jumping and translate.</t>
   </si>
   <si>
     <t>4.1.11.9: (ON CHARACTER MOVE): Set player animation to walking and translate.</t>
@@ -1032,12 +1002,45 @@
   <si>
     <t>3.1.3.7(i): Game controller / system class</t>
   </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>3.1.5.2(c)(iv): Ingredient pickup objects</t>
+  </si>
+  <si>
+    <t>4.1.9.1: The Player is a character object which is animated as it walks.</t>
+  </si>
+  <si>
+    <t>4.1.11.2: (ON SINGLE CLICK - PLAYER INVENTORY): Show the player's 9-slot inventory / close it.</t>
+  </si>
+  <si>
+    <t>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Move to the ingredient before adding the ingredient to the inventory and making it disappear from the world (if the inventory has room).</t>
+  </si>
+  <si>
+    <t>4.1.11.4: (ON CLOSE PROXIMITY - LABORATORY): Show the laboratory's 3-slot inventory / close it.</t>
+  </si>
+  <si>
+    <t>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO VILLAGER]): Create the potion in the Villager inventory, remove it from the Player inventory.</t>
+  </si>
+  <si>
+    <t>4.1.11.8(c): Exit.</t>
+  </si>
+  <si>
+    <t>4.1.11.8(b): Settings.</t>
+  </si>
+  <si>
+    <t>4.1.11.1: (ON CLOSE PROXIMITY - VILLAGER): Show / close the Villager's 1-slot inventory that will accept a potion.</t>
+  </si>
+  <si>
+    <t>4.1.11.5: (ON BUTTON PRESS - LABORATORY): Turn 3 'recipe' Iingredients into 1 Potion.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,6 +1203,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1445,9 +1454,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
@@ -1473,22 +1479,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
@@ -1502,41 +1538,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1852,20 +1861,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC9547A-9E45-4780-A306-18E91F6754AB}">
-  <dimension ref="B2:E276"/>
+  <dimension ref="B2:E273"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D42" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="3" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="4.3984375" customWidth="1"/>
+    <col min="2" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="159" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
@@ -1873,15 +1883,15 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-    </row>
-    <row r="4" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="23" t="s">
@@ -1889,7 +1899,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="22" t="s">
@@ -1897,21 +1907,21 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="10"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="22" t="s">
@@ -1919,277 +1929,277 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="2:5" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="2:5" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="2:5" ht="32.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="2:5" ht="32.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="48"/>
-    </row>
-    <row r="15" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:5" ht="44.65" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5" ht="44.65" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="48"/>
-    </row>
-    <row r="17" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="55"/>
+    </row>
+    <row r="17" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="48"/>
-    </row>
-    <row r="19" spans="2:5" ht="48.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E18" s="55"/>
+    </row>
+    <row r="19" spans="2:5" ht="48.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="52"/>
-    </row>
-    <row r="20" spans="2:5" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D19" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="2:5" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="52"/>
-    </row>
-    <row r="21" spans="2:5" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D20" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="47"/>
+    </row>
+    <row r="21" spans="2:5" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="52"/>
-    </row>
-    <row r="22" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E21" s="47"/>
+    </row>
+    <row r="22" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="48"/>
-    </row>
-    <row r="24" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D23" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="52"/>
-    </row>
-    <row r="25" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="47"/>
+    </row>
+    <row r="25" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="2:5" ht="29.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" ht="29.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="48"/>
-    </row>
-    <row r="27" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="55"/>
+    </row>
+    <row r="27" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="18"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="48"/>
-    </row>
-    <row r="29" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="55"/>
+    </row>
+    <row r="29" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="18"/>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="48"/>
-    </row>
-    <row r="31" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E30" s="55"/>
+    </row>
+    <row r="31" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" s="52"/>
-    </row>
-    <row r="32" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="47"/>
+    </row>
+    <row r="32" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="52"/>
-    </row>
-    <row r="33" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E32" s="47"/>
+    </row>
+    <row r="33" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="52"/>
-    </row>
-    <row r="34" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D33" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="47"/>
+    </row>
+    <row r="34" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="52"/>
-    </row>
-    <row r="35" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E34" s="47"/>
+    </row>
+    <row r="35" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="50"/>
-    </row>
-    <row r="37" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D36" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="49"/>
+    </row>
+    <row r="37" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="48"/>
-    </row>
-    <row r="38" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D37" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="55"/>
+    </row>
+    <row r="38" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="48"/>
-    </row>
-    <row r="39" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D38" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="55"/>
+    </row>
+    <row r="39" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="48"/>
-    </row>
-    <row r="40" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D39" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="55"/>
+    </row>
+    <row r="40" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="18"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="50"/>
-    </row>
-    <row r="42" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D41" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="49"/>
+    </row>
+    <row r="42" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="48"/>
-    </row>
-    <row r="43" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D42" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="48"/>
-    </row>
-    <row r="44" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D43" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="55"/>
+    </row>
+    <row r="44" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="18"/>
       <c r="E44" s="19"/>
     </row>
-    <row r="45" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="22" t="s">
@@ -2197,7 +2207,7 @@
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="10" t="s">
@@ -2205,165 +2215,165 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="37" t="s">
-        <v>155</v>
+      <c r="D48" s="36" t="s">
+        <v>145</v>
       </c>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="37" t="s">
-        <v>172</v>
+      <c r="D49" s="36" t="s">
+        <v>162</v>
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="15" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="15" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="15" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="15" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="15" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="37" t="s">
-        <v>178</v>
+      <c r="D57" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="37" t="s">
-        <v>179</v>
+      <c r="D58" s="36" t="s">
+        <v>169</v>
       </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="37" t="s">
-        <v>181</v>
+      <c r="D59" s="36" t="s">
+        <v>171</v>
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="37" t="s">
-        <v>182</v>
+      <c r="D60" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="37" t="s">
-        <v>183</v>
+      <c r="D61" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="37" t="s">
-        <v>184</v>
+      <c r="D62" s="36" t="s">
+        <v>174</v>
       </c>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="37" t="s">
-        <v>185</v>
+      <c r="D63" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="37" t="s">
-        <v>186</v>
+      <c r="D64" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="37" t="s">
-        <v>187</v>
+      <c r="D65" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="15"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="22" t="s">
@@ -2371,7 +2381,7 @@
       </c>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="10" t="s">
@@ -2379,7 +2389,7 @@
       </c>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="15" t="s">
@@ -2387,7 +2397,7 @@
       </c>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="15" t="s">
@@ -2395,7 +2405,7 @@
       </c>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="15" t="s">
@@ -2403,7 +2413,7 @@
       </c>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="15" t="s">
@@ -2411,7 +2421,7 @@
       </c>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="15" t="s">
@@ -2419,7 +2429,7 @@
       </c>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="15" t="s">
@@ -2427,13 +2437,13 @@
       </c>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="15"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="22" t="s">
@@ -2441,487 +2451,505 @@
       </c>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E78" s="48"/>
-    </row>
-    <row r="79" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D78" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="55"/>
+    </row>
+    <row r="79" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="15"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" s="50"/>
-    </row>
-    <row r="84" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D83" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="49"/>
+    </row>
+    <row r="84" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="48"/>
-    </row>
-    <row r="85" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D84" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="55"/>
+    </row>
+    <row r="85" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="E85" s="52"/>
-    </row>
-    <row r="86" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D85" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" s="47"/>
+    </row>
+    <row r="86" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="E86" s="52"/>
-    </row>
-    <row r="87" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D86" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="47"/>
+    </row>
+    <row r="87" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="E87" s="52"/>
-    </row>
-    <row r="88" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D87" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="47"/>
+    </row>
+    <row r="88" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="E88" s="52"/>
-    </row>
-    <row r="89" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D88" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88" s="47"/>
+    </row>
+    <row r="89" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="18"/>
       <c r="E89" s="19"/>
     </row>
-    <row r="90" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E90" s="48"/>
-    </row>
-    <row r="91" spans="2:5" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D90" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" s="55"/>
+    </row>
+    <row r="91" spans="2:5" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="63" t="str">
-        <f t="shared" ref="D91:D103" si="0">C218</f>
-        <v>4.1.11.1: (ON DOUBLE CLICK - BUYER): Show the buyer's 1-slot inventory that will accept a potion / close it.</v>
-      </c>
-      <c r="E91" s="64"/>
-    </row>
-    <row r="92" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D91" s="50" t="str">
+        <f t="shared" ref="D91:D94" si="0">C215</f>
+        <v>4.1.11.1: (ON CLOSE PROXIMITY - VILLAGER): Show / close the Villager's 1-slot inventory that will accept a potion.</v>
+      </c>
+      <c r="E91" s="51"/>
+    </row>
+    <row r="92" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="63" t="str">
+      <c r="D92" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>4.1.11.2: (ON DOUBLE CLICK - PLAYER): Show the player's 6-slot inventory / close it.</v>
-      </c>
-      <c r="E92" s="64"/>
-    </row>
-    <row r="93" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+        <v>4.1.11.2: (ON SINGLE CLICK - PLAYER INVENTORY): Show the player's 9-slot inventory / close it.</v>
+      </c>
+      <c r="E92" s="51"/>
+    </row>
+    <row r="93" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="63" t="str">
+      <c r="D93" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Translate the ingredient's transform to the player in an arc, then add it to the inventory and make it disappear.</v>
-      </c>
-      <c r="E93" s="64"/>
-    </row>
-    <row r="94" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+        <v>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Move to the ingredient before adding the ingredient to the inventory and making it disappear from the world (if the inventory has room).</v>
+      </c>
+      <c r="E93" s="51"/>
+    </row>
+    <row r="94" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="63" t="str">
+      <c r="D94" s="50" t="str">
         <f t="shared" si="0"/>
-        <v>4.1.11.4: (ON DOUBLE CLICK - LABORATORY): Show the laboratory's 3-slot inventory / close it.</v>
-      </c>
-      <c r="E94" s="64"/>
-    </row>
-    <row r="95" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+        <v>4.1.11.4: (ON CLOSE PROXIMITY - LABORATORY): Show the laboratory's 3-slot inventory / close it.</v>
+      </c>
+      <c r="E94" s="51"/>
+    </row>
+    <row r="95" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.11.5: (ON DRAG &amp; DROP - INGREDIENT [GARDEN TO INVENTORY]): Create the ingredient in the inventory, remove it from the garden.</v>
-      </c>
-      <c r="E95" s="64"/>
-    </row>
-    <row r="96" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D95" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E95" s="51"/>
+    </row>
+    <row r="96" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="63" t="str">
-        <f t="shared" si="0"/>
+      <c r="D96" s="50" t="str">
+        <f>C220</f>
         <v>4.1.11.6: (ON DRAG &amp; DROP - INGREDIENT [INVENTORY TO LABORATORY]): Create the ingredient in the laboratory, remove it from the inventory.</v>
       </c>
-      <c r="E96" s="64"/>
-    </row>
-    <row r="97" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="E96" s="51"/>
+    </row>
+    <row r="97" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO BUYER]): Create the potion in the buyer, remove it from the inventory.</v>
-      </c>
-      <c r="E97" s="64"/>
-    </row>
-    <row r="98" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D97" s="50" t="str">
+        <f>C221</f>
+        <v>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO VILLAGER]): Create the potion in the Villager inventory, remove it from the Player inventory.</v>
+      </c>
+      <c r="E97" s="51"/>
+    </row>
+    <row r="98" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="63" t="str">
-        <f t="shared" si="0"/>
+      <c r="D98" s="50" t="str">
+        <f>C222</f>
         <v>4.1.11.8: (ON SINGLE CLICK - MENU): Open the main menu / close it.</v>
       </c>
-      <c r="E98" s="64"/>
-    </row>
-    <row r="99" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="E98" s="51"/>
+    </row>
+    <row r="99" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="65" t="str">
-        <f t="shared" si="0"/>
+      <c r="D99" s="52" t="str">
+        <f>C223</f>
         <v>4.1.11.8(a): Resume.</v>
       </c>
-      <c r="E99" s="66"/>
-    </row>
-    <row r="100" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="E99" s="53"/>
+    </row>
+    <row r="100" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.11.8(b): Exit.</v>
-      </c>
-      <c r="E100" s="66"/>
-    </row>
-    <row r="101" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D100" s="52" t="str">
+        <f>C225</f>
+        <v>4.1.11.8(c): Exit.</v>
+      </c>
+      <c r="E100" s="53"/>
+    </row>
+    <row r="101" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="63" t="str">
-        <f t="shared" si="0"/>
+      <c r="D101" s="50" t="str">
+        <f>C226</f>
         <v>4.1.11.9: (ON CHARACTER MOVE): Set player animation to walking and translate.</v>
       </c>
-      <c r="E101" s="64"/>
-    </row>
-    <row r="102" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="E101" s="51"/>
+    </row>
+    <row r="102" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="63" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.11.10: (ON CHARACTER JUMP): Set player animation to jumping and translate.</v>
-      </c>
-      <c r="E102" s="64"/>
-    </row>
-    <row r="103" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D102" s="50" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E102" s="51"/>
+    </row>
+    <row r="103" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="63" t="str">
-        <f t="shared" si="0"/>
+      <c r="D103" s="50" t="str">
+        <f>C227</f>
         <v>4.1.11.11: (ON CHARACTER STOP): Set player animation to idle and stop translate.</v>
       </c>
-      <c r="E103" s="64"/>
-    </row>
-    <row r="104" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E103" s="51"/>
+    </row>
+    <row r="104" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="39"/>
-    </row>
-    <row r="105" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D104" s="37"/>
+      <c r="E104" s="38"/>
+    </row>
+    <row r="105" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E105" s="48"/>
-    </row>
-    <row r="106" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D105" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E105" s="55"/>
+    </row>
+    <row r="106" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="E106" s="52"/>
-    </row>
-    <row r="107" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D106" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106" s="47"/>
+    </row>
+    <row r="107" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="E107" s="52"/>
-    </row>
-    <row r="108" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D107" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="47"/>
+    </row>
+    <row r="108" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="E108" s="52"/>
-    </row>
-    <row r="109" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="D108" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="47"/>
+    </row>
+    <row r="109" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="E109" s="52"/>
-    </row>
-    <row r="110" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D109" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="E109" s="47"/>
+    </row>
+    <row r="110" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="18"/>
       <c r="E110" s="19"/>
     </row>
-    <row r="111" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="18"/>
-      <c r="E111" s="43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E111" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="41" t="str">
+      <c r="D112" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" s="40" t="str">
         <f>D85</f>
         <v>3.1.5.2(a)(i): Player inventory</v>
       </c>
     </row>
-    <row r="113" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="41" t="str">
+      <c r="D113" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" s="40" t="str">
         <f>D86</f>
         <v>3.1.5.2(a)(ii): Buyer inventory</v>
       </c>
     </row>
-    <row r="114" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="42"/>
-      <c r="E114" s="41" t="str">
+      <c r="D114" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114" s="40" t="str">
         <f>D87</f>
         <v>3.1.5.2(a)(iii): Laboratory inventory</v>
       </c>
     </row>
-    <row r="115" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="42"/>
-      <c r="E115" s="41" t="str">
+      <c r="D115" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E115" s="40" t="str">
         <f>D88</f>
         <v>3.1.5.2(a)(iv): Main menu with resume/ exit buttons</v>
       </c>
     </row>
-    <row r="116" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="41" t="str">
+      <c r="D116" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E116" s="40" t="str">
         <f>D106</f>
         <v>3.1.5.2(c)(i): 3D scene</v>
       </c>
     </row>
-    <row r="117" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="42"/>
-      <c r="E117" s="41" t="str">
+      <c r="D117" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" s="40" t="str">
         <f>D107</f>
         <v>3.1.5.2(c)(ii): Player character</v>
       </c>
     </row>
-    <row r="118" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="42"/>
-      <c r="E118" s="41" t="str">
+      <c r="D118" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E118" s="40" t="str">
         <f>D108</f>
         <v>3.1.5.2(c)(iii): Buyer object</v>
       </c>
     </row>
-    <row r="119" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="42"/>
-      <c r="E119" s="41" t="str">
+      <c r="D119" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="40" t="str">
         <f>D109</f>
-        <v>3.1.5.2(c)(iv): Ingredient pickup object</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>3.1.5.2(c)(iv): Ingredient pickup objects</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="41" t="str">
+      <c r="D120" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E120" s="40" t="str">
         <f t="shared" ref="E120:E132" si="1">D91</f>
-        <v>4.1.11.1: (ON DOUBLE CLICK - BUYER): Show the buyer's 1-slot inventory that will accept a potion / close it.</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>4.1.11.1: (ON CLOSE PROXIMITY - VILLAGER): Show / close the Villager's 1-slot inventory that will accept a potion.</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="42"/>
-      <c r="E121" s="41" t="str">
+      <c r="D121" s="41"/>
+      <c r="E121" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.2: (ON DOUBLE CLICK - PLAYER): Show the player's 6-slot inventory / close it.</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>4.1.11.2: (ON SINGLE CLICK - PLAYER INVENTORY): Show the player's 9-slot inventory / close it.</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="41" t="str">
+      <c r="D122" s="41"/>
+      <c r="E122" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Translate the ingredient's transform to the player in an arc, then add it to the inventory and make it disappear.</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>4.1.11.3: (ON DOUBLE CLICK - PICKUP INGREDIENT): Move to the ingredient before adding the ingredient to the inventory and making it disappear from the world (if the inventory has room).</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="42"/>
-      <c r="E123" s="41" t="str">
+      <c r="D123" s="41"/>
+      <c r="E123" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.4: (ON DOUBLE CLICK - LABORATORY): Show the laboratory's 3-slot inventory / close it.</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>4.1.11.4: (ON CLOSE PROXIMITY - LABORATORY): Show the laboratory's 3-slot inventory / close it.</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="42"/>
-      <c r="E124" s="41" t="str">
+      <c r="D124" s="41"/>
+      <c r="E124" s="40" t="e">
         <f t="shared" si="1"/>
-        <v>4.1.11.5: (ON DRAG &amp; DROP - INGREDIENT [GARDEN TO INVENTORY]): Create the ingredient in the inventory, remove it from the garden.</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="42"/>
-      <c r="E125" s="41" t="str">
+      <c r="D125" s="41"/>
+      <c r="E125" s="40" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.6: (ON DRAG &amp; DROP - INGREDIENT [INVENTORY TO LABORATORY]): Create the ingredient in the laboratory, remove it from the inventory.</v>
       </c>
     </row>
-    <row r="126" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="42"/>
-      <c r="E126" s="41" t="str">
+      <c r="D126" s="41"/>
+      <c r="E126" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO BUYER]): Create the potion in the buyer, remove it from the inventory.</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>4.1.11.7: (ON DRAG &amp; DROP - POTION [INVENTORY TO VILLAGER]): Create the potion in the Villager inventory, remove it from the Player inventory.</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="42"/>
-      <c r="E127" s="41" t="str">
+      <c r="D127" s="41"/>
+      <c r="E127" s="40" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.8: (ON SINGLE CLICK - MENU): Open the main menu / close it.</v>
       </c>
     </row>
-    <row r="128" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="42"/>
-      <c r="E128" s="40" t="str">
+      <c r="D128" s="41"/>
+      <c r="E128" s="39" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.8(a): Resume.</v>
       </c>
     </row>
-    <row r="129" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="42"/>
-      <c r="E129" s="40" t="str">
+      <c r="D129" s="41"/>
+      <c r="E129" s="39" t="str">
         <f t="shared" si="1"/>
-        <v>4.1.11.8(b): Exit.</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>4.1.11.8(c): Exit.</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="42"/>
-      <c r="E130" s="41" t="str">
+      <c r="D130" s="41"/>
+      <c r="E130" s="40" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.9: (ON CHARACTER MOVE): Set player animation to walking and translate.</v>
       </c>
     </row>
-    <row r="131" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="41" t="str">
+      <c r="D131" s="41"/>
+      <c r="E131" s="40" t="e">
         <f t="shared" si="1"/>
-        <v>4.1.11.10: (ON CHARACTER JUMP): Set player animation to jumping and translate.</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="42"/>
-      <c r="E132" s="41" t="str">
+      <c r="D132" s="41"/>
+      <c r="E132" s="40" t="str">
         <f t="shared" si="1"/>
         <v>4.1.11.11: (ON CHARACTER STOP): Set player animation to idle and stop translate.</v>
       </c>
     </row>
-    <row r="133" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="18"/>
       <c r="E133" s="19"/>
     </row>
-    <row r="134" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="22" t="s">
@@ -2929,7 +2957,7 @@
       </c>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="10" t="s">
@@ -2937,13 +2965,13 @@
       </c>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="10"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="22" t="s">
@@ -2951,7 +2979,7 @@
       </c>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="10" t="s">
@@ -2959,13 +2987,13 @@
       </c>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="11"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="2:5" ht="21" outlineLevel="1" x14ac:dyDescent="0.65">
+    <row r="140" spans="2:5" ht="21" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="32" t="s">
@@ -2973,7 +3001,7 @@
       </c>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="2:5" ht="18" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:5" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -2981,7 +3009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="18" outlineLevel="2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:5" ht="18.75" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -2989,7 +3017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
@@ -2997,7 +3025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="2:5" ht="21" outlineLevel="1" x14ac:dyDescent="0.65">
+    <row r="144" spans="2:5" ht="21" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="33" t="s">
@@ -3005,7 +3033,7 @@
       </c>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="2:5" ht="18" outlineLevel="3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -3013,7 +3041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="18" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -3021,7 +3049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -3029,7 +3057,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -3037,7 +3065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -3045,7 +3073,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -3053,13 +3081,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="34"/>
     </row>
-    <row r="152" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -3067,7 +3095,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="153" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -3075,7 +3103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -3083,7 +3111,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="155" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -3091,13 +3119,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="156" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="34"/>
     </row>
-    <row r="157" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -3105,7 +3133,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="158" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -3113,7 +3141,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -3121,7 +3149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -3129,13 +3157,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="14"/>
     </row>
-    <row r="162" spans="2:5" ht="18" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -3143,7 +3171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -3151,7 +3179,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="164" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -3159,13 +3187,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="165" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="14"/>
     </row>
-    <row r="166" spans="2:5" ht="18" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -3173,7 +3201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -3181,13 +3209,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="14"/>
     </row>
-    <row r="169" spans="2:5" ht="18" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -3195,7 +3223,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -3203,13 +3231,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="171" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="14"/>
     </row>
-    <row r="172" spans="2:5" ht="18" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -3217,7 +3245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="173" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -3225,13 +3253,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="174" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="14"/>
     </row>
-    <row r="175" spans="2:5" ht="18" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -3239,7 +3267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -3247,13 +3275,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="177" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="14"/>
     </row>
-    <row r="178" spans="2:5" ht="18" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:5" ht="18.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -3261,7 +3289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -3269,661 +3297,694 @@
         <v>105</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
       <c r="E180" s="12"/>
     </row>
-    <row r="181" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B181" s="3"/>
       <c r="C181" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E181" s="7"/>
     </row>
-    <row r="182" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B182" s="3"/>
       <c r="C182" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B183" s="3"/>
       <c r="C183" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B184" s="3"/>
       <c r="C184" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
       <c r="C185" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
       <c r="C186" s="9"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B187" s="3"/>
       <c r="C187" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="2:5" ht="36.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:5" ht="54.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
-      <c r="C188" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="D188" s="53"/>
-      <c r="E188" s="54"/>
-    </row>
-    <row r="189" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C188" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D188" s="62"/>
+      <c r="E188" s="63"/>
+    </row>
+    <row r="189" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
       <c r="C189" s="9"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B190" s="3"/>
       <c r="C190" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
       <c r="C191" s="9" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
       <c r="C192" s="9"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B193" s="3"/>
       <c r="C193" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
       <c r="C194" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
       <c r="C195" s="9"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B196" s="3"/>
       <c r="C196" s="29" t="s">
         <v>12</v>
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
-      <c r="C197" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D197" s="55"/>
-      <c r="E197" s="56"/>
-    </row>
-    <row r="198" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C197" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="D197" s="64"/>
+      <c r="E197" s="65"/>
+    </row>
+    <row r="198" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
       <c r="C198" s="9"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B199" s="3"/>
       <c r="C199" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
-      <c r="C200" s="53" t="s">
+      <c r="C200" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="D200" s="53"/>
-      <c r="E200" s="54"/>
-    </row>
-    <row r="201" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="D200" s="62"/>
+      <c r="E200" s="63"/>
+    </row>
+    <row r="201" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
-      <c r="C201" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="D201" s="53"/>
-      <c r="E201" s="54"/>
-    </row>
-    <row r="202" spans="2:5" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C201" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D201" s="62"/>
+      <c r="E201" s="63"/>
+    </row>
+    <row r="202" spans="2:5" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
-      <c r="C202" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="D202" s="67"/>
-      <c r="E202" s="68"/>
-    </row>
-    <row r="203" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C202" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D202" s="66"/>
+      <c r="E202" s="67"/>
+    </row>
+    <row r="203" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
       <c r="C203" s="10"/>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B204" s="3"/>
       <c r="C204" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
       <c r="C205" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="3"/>
+      <c r="C206" s="10"/>
+      <c r="E206" s="5"/>
+    </row>
+    <row r="207" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="3"/>
+      <c r="C207" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E207" s="5"/>
+    </row>
+    <row r="208" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="3"/>
+      <c r="C208" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E208" s="5"/>
+    </row>
+    <row r="209" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="3"/>
+      <c r="C209" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="3"/>
+      <c r="C210" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D210" s="60"/>
+      <c r="E210" s="61"/>
+    </row>
+    <row r="211" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="3"/>
+      <c r="C211" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D211" s="58"/>
+      <c r="E211" s="59"/>
+    </row>
+    <row r="212" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="3"/>
+      <c r="C212" s="10"/>
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="3"/>
+      <c r="C213" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="3"/>
+      <c r="C214" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E205" s="5"/>
-    </row>
-    <row r="206" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B206" s="3"/>
-      <c r="C206" s="36" t="str">
-        <f>D23</f>
-        <v>3.1.2.5 (d): Animation: Player (idle, walk).</v>
-      </c>
-      <c r="E206" s="5"/>
-    </row>
-    <row r="207" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B207" s="3"/>
-      <c r="C207" s="36" t="str">
-        <f>D24</f>
-        <v>3.1.2.5 (d)(i): Player (idle, walk).</v>
-      </c>
-      <c r="E207" s="5"/>
-    </row>
-    <row r="208" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B208" s="3"/>
-      <c r="C208" s="36" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E208" s="5"/>
-    </row>
-    <row r="209" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B209" s="3"/>
-      <c r="C209" s="10"/>
-      <c r="E209" s="5"/>
-    </row>
-    <row r="210" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B210" s="3"/>
-      <c r="C210" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E210" s="5"/>
-    </row>
-    <row r="211" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B211" s="3"/>
-      <c r="C211" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E211" s="5"/>
-    </row>
-    <row r="212" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B212" s="3"/>
-      <c r="C212" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E212" s="5"/>
-    </row>
-    <row r="213" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B213" s="3"/>
-      <c r="C213" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="D213" s="61"/>
-      <c r="E213" s="62"/>
-    </row>
-    <row r="214" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B214" s="3"/>
-      <c r="C214" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="D214" s="59"/>
-      <c r="E214" s="60"/>
-    </row>
-    <row r="215" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
-      <c r="C215" s="10"/>
+      <c r="C215" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
-      <c r="C216" s="29" t="s">
-        <v>17</v>
+      <c r="C216" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
-      <c r="C217" s="10" t="s">
-        <v>108</v>
+      <c r="C217" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
       <c r="C218" s="15" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
       <c r="C219" s="15" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
       <c r="C220" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
       <c r="C221" s="15" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
       <c r="C222" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E222" s="5"/>
+    </row>
+    <row r="223" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="3"/>
+      <c r="C223" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E223" s="5"/>
+    </row>
+    <row r="224" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="3"/>
+      <c r="C224" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E224" s="5"/>
+    </row>
+    <row r="225" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="3"/>
+      <c r="C225" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E225" s="5"/>
+    </row>
+    <row r="226" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="3"/>
+      <c r="C226" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E226" s="5"/>
+    </row>
+    <row r="227" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="3"/>
+      <c r="C227" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E227" s="5"/>
+    </row>
+    <row r="228" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="3"/>
+      <c r="C228" s="15"/>
+      <c r="E228" s="5"/>
+    </row>
+    <row r="229" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="3"/>
+      <c r="C229" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E229" s="5"/>
+    </row>
+    <row r="230" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="3"/>
+      <c r="C230" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" s="5"/>
+    </row>
+    <row r="231" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="3"/>
+      <c r="C231" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" s="5"/>
+    </row>
+    <row r="232" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="3"/>
+      <c r="C232" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E222" s="5"/>
-    </row>
-    <row r="223" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B223" s="3"/>
-      <c r="C223" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E223" s="5"/>
-    </row>
-    <row r="224" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B224" s="3"/>
-      <c r="C224" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E224" s="5"/>
-    </row>
-    <row r="225" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B225" s="3"/>
-      <c r="C225" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E225" s="5"/>
-    </row>
-    <row r="226" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B226" s="3"/>
-      <c r="C226" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E226" s="5"/>
-    </row>
-    <row r="227" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B227" s="3"/>
-      <c r="C227" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E227" s="5"/>
-    </row>
-    <row r="228" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B228" s="3"/>
-      <c r="C228" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E228" s="5"/>
-    </row>
-    <row r="229" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B229" s="3"/>
-      <c r="C229" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E229" s="5"/>
-    </row>
-    <row r="230" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B230" s="3"/>
-      <c r="C230" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E230" s="5"/>
-    </row>
-    <row r="231" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B231" s="3"/>
-      <c r="C231" s="15"/>
-      <c r="E231" s="5"/>
-    </row>
-    <row r="232" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B232" s="3"/>
-      <c r="C232" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E232" s="5"/>
-    </row>
-    <row r="233" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D232" s="56"/>
+      <c r="E232" s="57"/>
+    </row>
+    <row r="233" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
-      <c r="C233" s="29" t="s">
-        <v>19</v>
-      </c>
+      <c r="C233" s="10"/>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B234" s="3"/>
       <c r="C234" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B235" s="3"/>
-      <c r="C235" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D235" s="57"/>
-      <c r="E235" s="58"/>
-    </row>
-    <row r="236" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C235" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E235" s="5"/>
+    </row>
+    <row r="236" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B236" s="3"/>
-      <c r="C236" s="10"/>
-      <c r="E236" s="5"/>
-    </row>
-    <row r="237" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C236" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D236" s="56"/>
+      <c r="E236" s="57"/>
+    </row>
+    <row r="237" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B237" s="3"/>
-      <c r="C237" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="C237" s="10"/>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B238" s="3"/>
       <c r="C238" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B239" s="3"/>
-      <c r="C239" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="D239" s="57"/>
-      <c r="E239" s="58"/>
-    </row>
-    <row r="240" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C239" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D239" s="56"/>
+      <c r="E239" s="57"/>
+    </row>
+    <row r="240" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B240" s="3"/>
       <c r="C240" s="10"/>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B241" s="3"/>
       <c r="C241" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B242" s="3"/>
-      <c r="C242" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D242" s="57"/>
-      <c r="E242" s="58"/>
-    </row>
-    <row r="243" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C242" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D242" s="56"/>
+      <c r="E242" s="57"/>
+    </row>
+    <row r="243" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B243" s="3"/>
       <c r="C243" s="10"/>
       <c r="E243" s="5"/>
     </row>
-    <row r="244" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B244" s="3"/>
       <c r="C244" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B245" s="3"/>
-      <c r="C245" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D245" s="57"/>
-      <c r="E245" s="58"/>
-    </row>
-    <row r="246" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C245" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D245" s="56"/>
+      <c r="E245" s="57"/>
+    </row>
+    <row r="246" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B246" s="3"/>
       <c r="C246" s="10"/>
       <c r="E246" s="5"/>
     </row>
-    <row r="247" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B247" s="3"/>
       <c r="C247" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B248" s="3"/>
-      <c r="C248" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D248" s="57"/>
-      <c r="E248" s="58"/>
-    </row>
-    <row r="249" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C248" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D248" s="56"/>
+      <c r="E248" s="57"/>
+    </row>
+    <row r="249" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
       <c r="C249" s="10"/>
       <c r="E249" s="5"/>
     </row>
-    <row r="250" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B250" s="3"/>
       <c r="C250" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E250" s="5"/>
     </row>
-    <row r="251" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
-      <c r="C251" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D251" s="57"/>
-      <c r="E251" s="58"/>
-    </row>
-    <row r="252" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C251" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" s="56"/>
+      <c r="E251" s="57"/>
+    </row>
+    <row r="252" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
-      <c r="C252" s="10"/>
       <c r="E252" s="5"/>
     </row>
-    <row r="253" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B253" s="3"/>
-      <c r="C253" s="29" t="s">
-        <v>27</v>
+      <c r="C253" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
-      <c r="C254" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="D254" s="57"/>
-      <c r="E254" s="58"/>
-    </row>
-    <row r="255" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C254" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E254" s="5"/>
+    </row>
+    <row r="255" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
-      <c r="E255" s="5"/>
-    </row>
-    <row r="256" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C255" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D255" s="56"/>
+      <c r="E255" s="57"/>
+    </row>
+    <row r="256" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B256" s="3"/>
-      <c r="C256" s="28" t="s">
-        <v>28</v>
-      </c>
+      <c r="C256" s="10"/>
       <c r="E256" s="5"/>
     </row>
-    <row r="257" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B257" s="3"/>
       <c r="C257" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E257" s="5"/>
     </row>
-    <row r="258" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B258" s="3"/>
-      <c r="C258" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D258" s="57"/>
-      <c r="E258" s="58"/>
-    </row>
-    <row r="259" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C258" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D258" s="56"/>
+      <c r="E258" s="57"/>
+    </row>
+    <row r="259" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B259" s="3"/>
       <c r="C259" s="10"/>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B260" s="3"/>
       <c r="C260" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E260" s="5"/>
     </row>
-    <row r="261" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B261" s="3"/>
-      <c r="C261" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D261" s="57"/>
-      <c r="E261" s="58"/>
-    </row>
-    <row r="262" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C261" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D261" s="56"/>
+      <c r="E261" s="57"/>
+    </row>
+    <row r="262" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B262" s="3"/>
-      <c r="C262" s="10"/>
       <c r="E262" s="5"/>
     </row>
-    <row r="263" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B263" s="3"/>
-      <c r="C263" s="29" t="s">
-        <v>31</v>
+      <c r="C263" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="E263" s="5"/>
     </row>
-    <row r="264" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B264" s="3"/>
-      <c r="C264" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D264" s="57"/>
-      <c r="E264" s="58"/>
-    </row>
-    <row r="265" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C264" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E264" s="5"/>
+    </row>
+    <row r="265" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B265" s="3"/>
-      <c r="E265" s="5"/>
-    </row>
-    <row r="266" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C265" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D265" s="56"/>
+      <c r="E265" s="57"/>
+    </row>
+    <row r="266" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B266" s="3"/>
-      <c r="C266" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="E266" s="5"/>
     </row>
-    <row r="267" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B267" s="3"/>
-      <c r="C267" s="29" t="s">
-        <v>33</v>
+      <c r="C267" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B268" s="3"/>
-      <c r="C268" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D268" s="57"/>
-      <c r="E268" s="58"/>
-    </row>
-    <row r="269" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="C268" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E268" s="5"/>
+    </row>
+    <row r="269" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B269" s="3"/>
-      <c r="E269" s="5"/>
-    </row>
-    <row r="270" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C269" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" s="56"/>
+      <c r="E269" s="57"/>
+    </row>
+    <row r="270" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B270" s="3"/>
-      <c r="C270" s="28" t="s">
-        <v>34</v>
-      </c>
+      <c r="C270" s="10"/>
       <c r="E270" s="5"/>
     </row>
-    <row r="271" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="2:5" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B271" s="3"/>
       <c r="C271" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E271" s="5"/>
     </row>
-    <row r="272" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B272" s="3"/>
-      <c r="C272" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D272" s="57"/>
-      <c r="E272" s="58"/>
-    </row>
-    <row r="273" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B273" s="3"/>
-      <c r="C273" s="10"/>
-      <c r="E273" s="5"/>
-    </row>
-    <row r="274" spans="2:5" ht="18" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B274" s="3"/>
-      <c r="C274" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E274" s="5"/>
-    </row>
-    <row r="275" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="B275" s="3"/>
-      <c r="C275" s="57" t="s">
+      <c r="C272" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D275" s="57"/>
-      <c r="E275" s="58"/>
-    </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B276" s="4"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="6"/>
+      <c r="D272" s="56"/>
+      <c r="E272" s="57"/>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273" s="4"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="C236:E236"/>
+    <mergeCell ref="C239:E239"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="C269:E269"/>
+    <mergeCell ref="C272:E272"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C248:E248"/>
+    <mergeCell ref="C251:E251"/>
+    <mergeCell ref="C255:E255"/>
+    <mergeCell ref="C258:E258"/>
+    <mergeCell ref="C261:E261"/>
+    <mergeCell ref="C265:E265"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D91:E91"/>
     <mergeCell ref="D109:E109"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D101:E101"/>
@@ -3940,63 +4001,6 @@
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="C272:E272"/>
-    <mergeCell ref="C275:E275"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="C251:E251"/>
-    <mergeCell ref="C254:E254"/>
-    <mergeCell ref="C258:E258"/>
-    <mergeCell ref="C261:E261"/>
-    <mergeCell ref="C264:E264"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="C235:E235"/>
-    <mergeCell ref="C239:E239"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="C248:E248"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
